--- a/Src/DetailedSamples/Samples/Style/Output/SetAlignments.xlsx
+++ b/Src/DetailedSamples/Samples/Style/Output/SetAlignments.xlsx
@@ -2,19 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <bookViews>
-    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" activeTab="3" firstSheet="0"/>
+    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </bookViews>
   <sheets>
-    <sheet name="Cells" sheetId="1" r:id="R56ce2997b23c4662"/>
-    <sheet name="Rows" sheetId="2" r:id="R4665cb5682454c66"/>
-    <sheet name="Columns" sheetId="3" r:id="R80f24a907dd7452c"/>
-    <sheet name="Xceed Trial License" sheetId="4" r:id="R6d36fbc8fc524f8b"/>
+    <sheet name="Cells" sheetId="1" r:id="Rf98718289dcf4501"/>
+    <sheet name="Rows" sheetId="2" r:id="R8cdbeb7b287d4b9c"/>
+    <sheet name="Columns" sheetId="3" r:id="R4ea7908e08c74f2d"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Set Alignments</t>
   </si>
@@ -98,12 +97,6 @@
   </si>
   <si>
     <t xml:space="preserve">Setting column horizontal alignment to center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This workbook was created using the trial version of Xceed Workbooks for .NET.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please contact sales@xceed.com if you are ready to purchase.</t>
   </si>
 </sst>
 </file>
@@ -113,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh\:mm\:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <color theme="1"/>
       <sz val="11"/>
@@ -129,12 +122,6 @@
       <b/>
       <color theme="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFF8C00"/>
-      <sz val="16"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -200,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -287,7 +274,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="0">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -912,24 +898,4 @@
     </row>
   </sheetData>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="9">
-      <c r="A9" s="34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
 </file>